--- a/data/user_review_data/user_profile_df_test.xlsx
+++ b/data/user_review_data/user_profile_df_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,53 +463,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>먹는게 남는거임</t>
+          <t>hsy****</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>986</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/my/5b6fcf82adca47e0bce266be/review?v=2</t>
+          <t>https://m.place.naver.com/my/5efe11de854ca929311318ac/review?v=2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>졍3117</t>
+          <t>arias7932</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/my/5bf6a41117ddc35c6bc54f05/review?v=2</t>
+          <t>https://m.place.naver.com/my/5edf44e48f87a842bc04f794/review?v=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jyo****</t>
+          <t>퍼플리보</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -519,18 +519,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/my/5be833949ce82c68a43d32ef/review?v=2</t>
+          <t>https://m.place.naver.com/my/5c5d452d3ea9594c7358dacd/review?v=2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GT0</t>
+          <t>don****</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1326</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -540,175 +540,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/my/5e5b7c428f87a842bc500611/review?v=2</t>
+          <t>https://m.place.naver.com/my/652000e28314d60a92065cb5/review?v=2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dongle25</t>
+          <t>체리는 맛있어</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>445</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/my/5bdc34ca2919a24c3151f584/review?v=2</t>
+          <t>https://m.place.naver.com/my/5da0a1628f87a842bcae4f8e/review?v=2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>깅도리</t>
+          <t>하늘빛눈</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/my/5e7191d68f87a842bc16a8ef/review?v=2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>먹는게 남는거임</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>986</v>
-      </c>
-      <c r="C8" t="n">
-        <v>63</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://m.place.naver.com/my/5b6fcf82adca47e0bce266be/review?v=2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>졍3117</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>118</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://m.place.naver.com/my/5bf6a41117ddc35c6bc54f05/review?v=2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>jyo****</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>12</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://m.place.naver.com/my/5be833949ce82c68a43d32ef/review?v=2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GT0</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1326</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://m.place.naver.com/my/5e5b7c428f87a842bc500611/review?v=2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>dongle25</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>445</v>
-      </c>
-      <c r="C12" t="n">
-        <v>27</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://m.place.naver.com/my/5bdc34ca2919a24c3151f584/review?v=2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>깅도리</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>72</v>
-      </c>
-      <c r="C13" t="n">
-        <v>18</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://m.place.naver.com/my/5e7191d68f87a842bc16a8ef/review?v=2</t>
+          <t>https://m.place.naver.com/my/5d251d01dd1a688aca746736/review?v=2</t>
         </is>
       </c>
     </row>
